--- a/0WM_BLT2/Process/0WM_BLT2.xlsx
+++ b/0WM_BLT2/Process/0WM_BLT2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -95,78 +95,119 @@
     <t>B2DDR</t>
   </si>
   <si>
-    <t>IO_HDMI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO_HDMI_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_POE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_POE_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B2BYY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CARRIER_NPOE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_NPOE_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_USB_EXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_USB_EXT_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_ETH_POE_AT_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER_ETH_POE_AT_TYPE_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\BLT2_CARRIER_POE.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\CARRIER_POE_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\BLT2_CARRIER_NPOE.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\CARRIER_NPOE_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\BLT2_CARRIER_ETH_POE_AT_TYPE.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\CARRIER_ETH_POE_AT_TYPE_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\BLT2_IO_HDMI.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\IO_HDMI_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\BLT2_CARRIER_USB_EXT.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\CARRIER_USB_EXT_LogCheck.bat</t>
+    <t>I2C_TempSensor_TMP108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_TempSensor_TMP108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_I2C_TempSensor_TMP108.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_I2C_TempSensor_TMP108_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_ClockGenerator_Si5340</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_I2C_ClockGenerator_Si5340.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_I2C_ClockGenerator_Si5340_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_ClockSynth_Ver</t>
+  </si>
+  <si>
+    <t>Check_ClockSynth_Ver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_ClockSynth_Ver.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_ClockSynth_Ver_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA</t>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI_Port1</t>
+  </si>
+  <si>
+    <t>HDMI_Port1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_HDMI_Port1.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_HDMI_Port1_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI_Port2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_HDMI_Port2.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_HDMI_Port2_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDI_Port</t>
+  </si>
+  <si>
+    <t>SDI_Port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_SDI_Port.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_SDI_Port_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED7to9</t>
+  </si>
+  <si>
+    <t>LED7to9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_LED7to9.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_LED7to9_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
@@ -650,22 +691,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -685,16 +726,16 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>21</v>
@@ -714,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>21</v>
@@ -737,22 +778,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>21</v>
@@ -766,28 +807,115 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/0WM_BLT2/Process/0WM_BLT2.xlsx
+++ b/0WM_BLT2/Process/0WM_BLT2.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,8 +708,8 @@
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
+      <c r="M2" s="2">
+        <v>8</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
@@ -737,8 +737,8 @@
       <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
+      <c r="M3" s="2">
+        <v>8</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -795,8 +795,8 @@
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
+      <c r="M5" s="2">
+        <v>8</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>

--- a/0WM_BLT2/Process/0WM_BLT2.xlsx
+++ b/0WM_BLT2/Process/0WM_BLT2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -115,18 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I2C_ClockGenerator_Si5340</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\Test_I2C_ClockGenerator_Si5340.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_I2C_ClockGenerator_Si5340_CheckLog.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Check_ClockSynth_Ver</t>
   </si>
   <si>
@@ -142,17 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Check_FPGA</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_CheckLog.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HDMI_Port1</t>
   </si>
   <si>
@@ -207,6 +184,132 @@
   </si>
   <si>
     <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_LED7to9_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDIReciver_LMH1219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_I2C_SDIReciver_LMH1219.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_I2C_SDIReciver_LMH1219_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_QSPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_EMMC</t>
+  </si>
+  <si>
+    <t>Check_FPGA_EMMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_HDMI1</t>
+  </si>
+  <si>
+    <t>Check_FPGA_HDMI1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_HDMI2</t>
+  </si>
+  <si>
+    <t>Check_FPGA_HDMI2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_OneWire</t>
+  </si>
+  <si>
+    <t>Check_FPGA_OneWire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_Discover</t>
+  </si>
+  <si>
+    <t>Check_FPGA_Discover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_FPGA_PCIE</t>
+  </si>
+  <si>
+    <t>Check_FPGA_PCIE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_QSPI.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_QSPI_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_EMMC.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_EMMC_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_Discover.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_Discover_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_HDMI1.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_HDMI1_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_HDMI2.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_HDMI2_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_OneWire.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_OneWire_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_Check_FPGA_PCIE.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_Check_FPGA_PCIE_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_Si5340</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\Test_I2C_Si5340.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT2\log\Test_I2C_Si5340_CheckLog.bat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,16 +698,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
@@ -720,22 +823,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M3" s="2">
         <v>8</v>
@@ -749,25 +852,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -778,25 +881,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -807,25 +910,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -836,25 +939,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -865,25 +968,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -894,28 +997,231 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/0WM_BLT2/Process/0WM_BLT2.xlsx
+++ b/0WM_BLT2/Process/0WM_BLT2.xlsx
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
